--- a/metadata/ptsbook_data.xlsx
+++ b/metadata/ptsbook_data.xlsx
@@ -93,6 +93,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,12 +115,14 @@
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,11 +176,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,10 +204,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -230,94 +233,94 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -353,7 +356,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -379,25 +382,25 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -408,7 +411,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -427,7 +430,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -453,25 +456,25 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -482,7 +485,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/metadata/ptsbook_data.xlsx
+++ b/metadata/ptsbook_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
   <si>
     <t xml:space="preserve">Book Name</t>
   </si>
@@ -57,36 +57,29 @@
     <t xml:space="preserve">https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">Pts#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#4</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 September 2023 at 23:09:51 UTC+5:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 September 2023 at 23:09:51 UTC+5:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 September 2023 at 23:09:51 UTC+5:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 September 2023 at 23:09:51 UTC+5:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -167,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,6 +174,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,10 +205,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -245,14 +246,14 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>45187.9345864496</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,14 +269,14 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
+      <c r="E3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>45188.9345864496</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,14 +292,14 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
+      <c r="E4" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>45189.9345864496</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,14 +315,14 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
+      <c r="E5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45190.9345864496</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -356,7 +357,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -398,10 +399,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -430,7 +431,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -472,10 +473,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/ptsbook_data.xlsx
+++ b/metadata/ptsbook_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="30">
   <si>
     <t xml:space="preserve">Book Name</t>
   </si>
@@ -69,7 +69,49 @@
     <t xml:space="preserve">Pts#4</t>
   </si>
   <si>
-    <t xml:space="preserve">1 September 2023 at 23:09:51 UTC+5:30</t>
+    <t xml:space="preserve">Pts#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#19</t>
   </si>
 </sst>
 </file>
@@ -79,9 +121,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -116,6 +158,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +207,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,6 +232,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,10 +264,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -351,13 +410,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -395,20 +454,470 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
+      <c r="F2" s="7" t="n">
+        <v>45187.9345833333</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>45188.9345833333</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>45189.9345833333</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>45190.9345833333</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>45191.9345833333</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>45192.9345833333</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>45193.9345833333</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>45194.9345833333</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>45195.9345833333</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>45196.9345833333</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>45197.9345833333</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>45198.9345833333</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>45199.9345833333</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>45200.9345833333</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>45201.9345833333</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>45202.9345833333</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>45203.9345833333</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>45204.9345833333</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>45205.9345833333</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
     <hyperlink ref="D2" r:id="rId2" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D3" r:id="rId4" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C4" r:id="rId5" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D4" r:id="rId6" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C5" r:id="rId7" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D5" r:id="rId8" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C6" r:id="rId9" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D6" r:id="rId10" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C7" r:id="rId11" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D7" r:id="rId12" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C8" r:id="rId13" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D8" r:id="rId14" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C9" r:id="rId15" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D9" r:id="rId16" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C10" r:id="rId17" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D10" r:id="rId18" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C11" r:id="rId19" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D11" r:id="rId20" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C12" r:id="rId21" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D12" r:id="rId22" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C13" r:id="rId23" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D13" r:id="rId24" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C14" r:id="rId25" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D14" r:id="rId26" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C15" r:id="rId27" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D15" r:id="rId28" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C16" r:id="rId29" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D16" r:id="rId30" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C17" r:id="rId31" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D17" r:id="rId32" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C18" r:id="rId33" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D18" r:id="rId34" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C19" r:id="rId35" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D19" r:id="rId36" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C20" r:id="rId37" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D20" r:id="rId38" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -425,13 +934,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -469,20 +978,270 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
+      <c r="F2" s="7" t="n">
+        <v>45187.9345833333</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>45188.9345833333</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>45189.9345833333</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>45190.9345833333</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>45191.9345833333</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>45192.9345833333</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>45193.9345833333</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>45194.9345833333</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>45195.9345833333</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>45196.9345833333</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>45197.9345833333</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
     <hyperlink ref="D2" r:id="rId2" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D3" r:id="rId4" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C4" r:id="rId5" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D4" r:id="rId6" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C5" r:id="rId7" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D5" r:id="rId8" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C6" r:id="rId9" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D6" r:id="rId10" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C7" r:id="rId11" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D7" r:id="rId12" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C8" r:id="rId13" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D8" r:id="rId14" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C9" r:id="rId15" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D9" r:id="rId16" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C10" r:id="rId17" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D10" r:id="rId18" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C11" r:id="rId19" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D11" r:id="rId20" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
+    <hyperlink ref="C12" r:id="rId21" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
+    <hyperlink ref="D12" r:id="rId22" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/metadata/ptsbook_data.xlsx
+++ b/metadata/ptsbook_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Free" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="16">
   <si>
     <t xml:space="preserve">Book Name</t>
   </si>
@@ -70,48 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pts#5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#19</t>
   </si>
 </sst>
 </file>
@@ -123,7 +81,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -159,11 +117,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -236,10 +189,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -263,11 +212,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -413,10 +362,10 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -457,7 +406,7 @@
       <c r="E2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="5" t="n">
         <v>45187.9345833333</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -477,10 +426,10 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="E3" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="n">
         <v>45188.9345833333</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -500,10 +449,10 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7" t="n">
+      <c r="E4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="n">
         <v>45189.9345833333</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -523,10 +472,10 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>45190.9345833333</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -546,10 +495,10 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="n">
+      <c r="E6" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="n">
         <v>45191.9345833333</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -557,326 +506,130 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>45192.9345833333</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>45193.9345833333</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>45194.9345833333</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>45195.9345833333</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>45196.9345833333</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>45197.9345833333</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>45198.9345833333</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>45199.9345833333</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>45200.9345833333</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>19</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>45201.9345833333</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>45202.9345833333</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>45203.9345833333</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="8" t="n">
-        <v>22</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>45204.9345833333</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>45205.9345833333</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -890,34 +643,6 @@
     <hyperlink ref="D5" r:id="rId8" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
     <hyperlink ref="C6" r:id="rId9" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
     <hyperlink ref="D6" r:id="rId10" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C7" r:id="rId11" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D7" r:id="rId12" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C8" r:id="rId13" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D8" r:id="rId14" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C9" r:id="rId15" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D9" r:id="rId16" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C10" r:id="rId17" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D10" r:id="rId18" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C11" r:id="rId19" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D11" r:id="rId20" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C12" r:id="rId21" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D12" r:id="rId22" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C13" r:id="rId23" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D13" r:id="rId24" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C14" r:id="rId25" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D14" r:id="rId26" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C15" r:id="rId27" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D15" r:id="rId28" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C16" r:id="rId29" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D16" r:id="rId30" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C17" r:id="rId31" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D17" r:id="rId32" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C18" r:id="rId33" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D18" r:id="rId34" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C19" r:id="rId35" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D19" r:id="rId36" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C20" r:id="rId37" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D20" r:id="rId38" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -936,11 +661,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -981,7 +706,7 @@
       <c r="E2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="5" t="n">
         <v>45187.9345833333</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1004,7 +729,7 @@
       <c r="E3" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="5" t="n">
         <v>45188.9345833333</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1027,7 +752,7 @@
       <c r="E4" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="5" t="n">
         <v>45189.9345833333</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1035,188 +760,76 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>45190.9345833333</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>45191.9345833333</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>45192.9345833333</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>45193.9345833333</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>45194.9345833333</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>45195.9345833333</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>45196.9345833333</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>45197.9345833333</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1226,22 +839,6 @@
     <hyperlink ref="D3" r:id="rId4" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
     <hyperlink ref="C4" r:id="rId5" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
     <hyperlink ref="D4" r:id="rId6" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C5" r:id="rId7" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D5" r:id="rId8" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C6" r:id="rId9" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D6" r:id="rId10" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C7" r:id="rId11" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D7" r:id="rId12" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C8" r:id="rId13" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D8" r:id="rId14" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C9" r:id="rId15" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D9" r:id="rId16" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C10" r:id="rId17" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D10" r:id="rId18" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C11" r:id="rId19" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D11" r:id="rId20" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
-    <hyperlink ref="C12" r:id="rId21" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/"/>
-    <hyperlink ref="D12" r:id="rId22" display="https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/metadata/ptsbook_data.xlsx
+++ b/metadata/ptsbook_data.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Free" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="education" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="fiction" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="book_name" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="17">
   <si>
     <t xml:space="preserve">Book Name</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pts#5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rich dad</t>
   </si>
 </sst>
 </file>
@@ -216,7 +220,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -365,7 +369,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -661,11 +665,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -848,4 +852,43 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/metadata/ptsbook_data.xlsx
+++ b/metadata/ptsbook_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
   <si>
     <t xml:space="preserve">Book Name</t>
   </si>
@@ -46,19 +46,22 @@
     <t xml:space="preserve">Book id</t>
   </si>
   <si>
+    <t xml:space="preserve">Rich dad poor dad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert kiyosaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rich dad poor dad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert kiyosaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-files/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/seenuvasan1947/ptsbook-data/raw/main/books/rich_dad_poor_dad/book-meta-data/book_logo.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#1</t>
   </si>
   <si>
     <t xml:space="preserve">Pts#2</t>
@@ -85,7 +88,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -120,6 +123,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,6 +205,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,10 +229,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -270,7 +282,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -288,12 +300,12 @@
         <v>45188.9345864496</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -311,12 +323,12 @@
         <v>45189.9345864496</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -334,7 +346,7 @@
         <v>45190.9345864496</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -369,7 +381,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -396,7 +408,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -419,7 +431,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -437,12 +449,12 @@
         <v>45188.9345833333</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -460,12 +472,12 @@
         <v>45189.9345833333</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -483,12 +495,12 @@
         <v>45190.9345833333</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -506,7 +518,7 @@
         <v>45191.9345833333</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,7 +681,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -696,7 +708,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -719,7 +731,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -737,12 +749,12 @@
         <v>45188.9345833333</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -760,7 +772,7 @@
         <v>45189.9345833333</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,24 +874,24 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>16</v>
+      <c r="A1" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>16</v>
+      <c r="A2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
+      <c r="A3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/ptsbook_data.xlsx
+++ b/metadata/ptsbook_data.xlsx
@@ -88,7 +88,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -124,11 +124,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,10 +200,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,7 +223,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -381,7 +372,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -681,7 +672,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -877,11 +868,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>7</v>
+      <c r="A1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/metadata/ptsbook_data.xlsx
+++ b/metadata/ptsbook_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Free" sheetId="1" state="visible" r:id="rId2"/>
@@ -61,16 +61,16 @@
     <t xml:space="preserve">Pts#1</t>
   </si>
   <si>
+    <t xml:space="preserve">Pts#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pts#4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rich dad poor dad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#4</t>
   </si>
   <si>
     <t xml:space="preserve">Pts#5</t>
@@ -219,11 +219,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -273,7 +273,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -291,12 +291,12 @@
         <v>45188.9345864496</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -314,12 +314,12 @@
         <v>45189.9345864496</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -337,7 +337,7 @@
         <v>45190.9345864496</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -372,7 +372,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -399,7 +399,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -440,12 +440,12 @@
         <v>45188.9345833333</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -463,12 +463,12 @@
         <v>45189.9345833333</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -486,12 +486,12 @@
         <v>45190.9345833333</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -672,7 +672,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -699,7 +699,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -740,12 +740,12 @@
         <v>45188.9345833333</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -763,7 +763,7 @@
         <v>45189.9345833333</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,15 +864,15 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/metadata/ptsbook_data.xlsx
+++ b/metadata/ptsbook_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Free" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
   <si>
     <t xml:space="preserve">Book Name</t>
   </si>
@@ -76,7 +76,169 @@
     <t xml:space="preserve">Pts#5</t>
   </si>
   <si>
-    <t xml:space="preserve">rich dad</t>
+    <t xml:space="preserve">பணக்கார அப்பா ஏழை அப்பா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أب غني أب فقير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богат татко беден татко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ধনী বাবা দরিদ্র বাবা</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogati tata jadni tata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ric pare, pobre pare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohatý táta chudý táta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dad Rich Dad tlawd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rig far stakkels far</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reicher Vater, armer Vater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Πλούσιος μπαμπάς φτωχός μπαμπάς</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papa rico Papa pobre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rikas isa vaene isa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rikas isä köyhä isä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayaman na Tatay mahirap na tatay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papa riche, papa pauvre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">શ્રીમંત પપ્પા ગરીબ પિતા</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבא עשיר אבא עני</t>
+  </si>
+  <si>
+    <t xml:space="preserve">धनी पिता गरीब पिता</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazdag apa szegény apa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayah kaya ayah malang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ríkur pabbi aumingja pabbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papà ricco papà povero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金持ちのお父さんがかわいそうなお父さん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bapak-bapak ala bapak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ឪពុកកំសត់របស់ឪពុកអ្នកក្រ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಶ್ರೀಮಂತ ತಂದೆ ಬಡ ಅಪ್ಪ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부자 아빠 가난한 아빠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagāts tētis nabaga tētis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turtingas tėtis vargšas tėtis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">സമ്പന്നമായ അച്ഛൻ ഡാഡ് ഡാഡി</t>
+  </si>
+  <si>
+    <t xml:space="preserve">श्रीमंत वडील गरीब बाबा</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayah Ayah Kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rik pappa stakkars pappa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">धनी बुबा बुहारी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rijke vader arme vader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ਅਮੀਰ ਪਿਤਾ ਮਾੜੇ ਡੈਡੀ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogaty ojciec, biedny ojciec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pai rico Pai Pobre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tată bogat sărac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богатый папа бедный папа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ධනවත් තාත්තා දුප් තාත්තා</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohatý otec chudobný otec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babi i pasur baba i varfër</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богати тата Јадник отац</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bapak beunghar bapak goréng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rik pappa stackars pappa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baba tajiri baba maskini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">రిచ్ డాడ్ పేద తండ్రి</t>
+  </si>
+  <si>
+    <t xml:space="preserve">พ่อที่ร่ำรวย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zengin Baba Fakir Baba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Багатий тато бідний тато</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امیر والد غریب والد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha giàu có tội nghiệp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有钱的爸爸爸爸</t>
   </si>
 </sst>
 </file>
@@ -88,7 +250,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -123,6 +285,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,6 +367,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,11 +390,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -372,7 +543,7 @@
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -672,7 +843,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -862,27 +1033,320 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.35"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/ptsbook_data.xlsx
+++ b/metadata/ptsbook_data.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Free" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="education" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="fiction" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="book_name" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="author_name" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="gener_sheet" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="148">
   <si>
     <t xml:space="preserve">Book Name</t>
   </si>
@@ -239,6 +241,275 @@
   </si>
   <si>
     <t xml:space="preserve">有钱的爸爸爸爸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ராபர்ட் கியோசாகி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روبرت كيوساكي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Робърт Кийосаки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">রবার্ট কিয়োসাকি</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Kiyosaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">રોબર્ટ કિઓસાકી</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רוברט קיוסאקי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रॉबर्ट कियोसाकी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロバート・キヨサキ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">រ៉ូប៊ឺតគីយូសាកូគី</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ರಾಬರ್ಟ್ ಕಿಯೋಸಾಕಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로버트 키요 사키</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberts Kiyosaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robertas Kiyosaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">റോബർട്ട് കിയോസാക്കി</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रॉबर्ट किओसाकी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रोबर्ट क्यूसोस्की</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ਰਾਬਰਟ ਕਿਯੋਸਾਕੀ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роберт Кийосаки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">රොබට් කියෝසකි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роберт Кииосаки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">రాబర్ట్ కియోసాకి</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роберт Кіясакі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رابرٹ کییوساکی</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">罗伯特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">基亚萨基（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Robert Kiyosaki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">கல்வி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعليم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">образование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">শিক্ষা</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obrazovanje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educació</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vzdělání</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addysg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uddannelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausbildung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">εκπαίδευση</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haridus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koulutus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edukasyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">éducation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">શિક્ષણ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חינוך</t>
+  </si>
+  <si>
+    <t xml:space="preserve">शिक्षा</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oktatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pendidikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menntun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formazione scolastica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">教育</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendhidhikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ការអប់រម</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಶಿಕ್ಷಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">교육</t>
+  </si>
+  <si>
+    <t xml:space="preserve">izglītība</t>
+  </si>
+  <si>
+    <t xml:space="preserve">išsilavinimas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">പഠനം</t>
+  </si>
+  <si>
+    <t xml:space="preserve">शिक्षण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utdanning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onderwijs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ਸਿੱਖਿਆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edukacja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educaţie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">අධ්යාපන</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vzdelávanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arsim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">образовање</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utbildning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elimu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">చదువు</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การศึกษา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eğitim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">освіта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعلیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giáo dục</t>
   </si>
 </sst>
 </file>
@@ -250,7 +521,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -283,6 +554,12 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -334,7 +611,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,6 +648,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +672,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A1:A61 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -540,10 +821,10 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="1" sqref="A1:A61 G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -840,10 +1121,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A1:A61 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1035,11 +1316,11 @@
   </sheetPr>
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A1:A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.35"/>
   </cols>
@@ -1347,6 +1628,664 @@
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/ptsbook_data.xlsx
+++ b/metadata/ptsbook_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Free" sheetId="1" state="visible" r:id="rId2"/>
@@ -72,10 +72,10 @@
     <t xml:space="preserve">Pts#4</t>
   </si>
   <si>
+    <t xml:space="preserve">Pts#5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rich dad poor dad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pts#5</t>
   </si>
   <si>
     <t xml:space="preserve">பணக்கார அப்பா ஏழை அப்பா</t>
@@ -672,7 +672,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A1:A61 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -820,8 +820,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="1" sqref="A1:A61 G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -851,7 +851,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -961,7 +961,7 @@
         <v>45191.9345833333</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A1:A61 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A1:A61"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1649,7 +1649,7 @@
   <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A61"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1977,8 +1977,8 @@
   </sheetPr>
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
